--- a/data/oregon/tables/TableS1_species key.xlsx
+++ b/data/oregon/tables/TableS1_species key.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/oregon/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E16835CB-48B7-E545-BDCA-14F756A8FCB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C008D-2953-CC4B-AB45-2B3F1FAF01B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="5180" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="14200" yWindow="5180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_species key" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -982,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/oregon/tables/TableS1_species key.xlsx
+++ b/data/oregon/tables/TableS1_species key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/oregon/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C008D-2953-CC4B-AB45-2B3F1FAF01B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428C5FF-AAB9-4044-91F1-C29D8375AAAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14200" yWindow="5180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Eastern softshell clam (Mya arenaria)</t>
   </si>
   <si>
-    <t>Cockle clam (Clinocardium nuttallii)</t>
-  </si>
-  <si>
     <t>Pacific oyster (Crassostrea gigas)</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Bay mussel (Mytilus edulis)</t>
   </si>
   <si>
-    <t>Native littleneck clam (Leukoma staminea)</t>
-  </si>
-  <si>
     <t>Harmonized name</t>
   </si>
   <si>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Littleneck clam (Leukoma staminea)</t>
+  </si>
+  <si>
+    <t>Cockle (Clinocardium nuttallii)</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,18 +998,18 @@
   <sheetData>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
